--- a/QLGARA/BaoCaoTon.xlsx
+++ b/QLGARA/BaoCaoTon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Nhập môn CNPM\Thực hành\DoAN\DoAnNMCNPM\QLGARA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88B67E3D-410F-4DEC-B95E-C4DE458483A8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2446203B-68F9-47BA-B0C5-7BB524EC1471}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6795" xr2:uid="{153A79EF-586D-4279-8929-1DDF59DC50F8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6795" xr2:uid="{44DF81D6-D292-43C9-88F0-31DB65414242}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,42 +25,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>BÁO CÁO DOANH SỐ</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>BÁO CÁO TỒN</t>
   </si>
   <si>
     <t>Tháng</t>
   </si>
   <si>
-    <t>Tổng doanh số</t>
-  </si>
-  <si>
-    <t>Hiệu xe</t>
-  </si>
-  <si>
-    <t>Số lượt sửa</t>
-  </si>
-  <si>
-    <t>Thành tiền</t>
-  </si>
-  <si>
-    <t>Tỉ lệ</t>
-  </si>
-  <si>
-    <t>Audi</t>
-  </si>
-  <si>
-    <t>Chevrolet</t>
-  </si>
-  <si>
-    <t>Ford</t>
-  </si>
-  <si>
-    <t>Kia</t>
-  </si>
-  <si>
-    <t>Mecerdes-Benz</t>
+    <t>Vật tư, phụ tùng</t>
+  </si>
+  <si>
+    <t>Tồn đầu</t>
+  </si>
+  <si>
+    <t>Phát sinh</t>
+  </si>
+  <si>
+    <t>Tồn cuối</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -410,17 +404,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35718B9D-BB10-4CF1-9C34-069BB1A2F977}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED78E98-B5AC-4D77-9831-CF4D54A16C10}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -429,32 +423,38 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>6</v>
+      <c r="B2">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1036000</v>
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
         <v>6</v>
       </c>
     </row>
@@ -463,13 +463,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>173000</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>0.16666666666666699</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -477,13 +477,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>506000</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>0.33333333333333298</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -491,41 +491,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>104500</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.16666666666666699</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>148000</v>
-      </c>
-      <c r="D8">
-        <v>0.16666666666666699</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>104500</v>
-      </c>
-      <c r="D9">
-        <v>0.16666666666666699</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/QLGARA/BaoCaoTon.xlsx
+++ b/QLGARA/BaoCaoTon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Nhập môn CNPM\Thực hành\DoAN\DoAnNMCNPM\QLGARA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2446203B-68F9-47BA-B0C5-7BB524EC1471}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E576CFFE-FE08-4C36-8C61-0E4688CEC9A7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6795" xr2:uid="{44DF81D6-D292-43C9-88F0-31DB65414242}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6795" xr2:uid="{9482E4D7-2532-4B9F-AC26-A57BA2F28362}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED78E98-B5AC-4D77-9831-CF4D54A16C10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E99D534-A2C7-453E-B0EC-2E7911AA9E84}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -427,7 +427,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -449,13 +449,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -463,13 +463,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -477,13 +477,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">

--- a/QLGARA/BaoCaoTon.xlsx
+++ b/QLGARA/BaoCaoTon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Nhập môn CNPM\Thực hành\DoAN\DoAnNMCNPM\QLGARA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E576CFFE-FE08-4C36-8C61-0E4688CEC9A7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CEB178E-18C1-4F9F-8243-1DBD9F153541}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6795" xr2:uid="{9482E4D7-2532-4B9F-AC26-A57BA2F28362}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6795" xr2:uid="{9E162C9A-E381-42E7-B909-7F58260C0E21}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E99D534-A2C7-453E-B0EC-2E7911AA9E84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B664649F-0378-4EC7-8B2B-5A6142E3857E}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>7</v>
@@ -463,13 +463,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -477,7 +477,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -494,10 +494,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
